--- a/FALL 19/CSE 104/results.xlsx
+++ b/FALL 19/CSE 104/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="quiz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -157,13 +157,19 @@
   </si>
   <si>
     <t>S.M. Al-Amin Shohag</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +217,18 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,6 +271,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,16 +579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
+    <col min="3" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -595,6 +615,12 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -619,6 +645,14 @@
         <f>C2+D2+E2+F2</f>
         <v>0</v>
       </c>
+      <c r="H2" s="10">
+        <f>(G2/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IF(H2&gt;94,"A+",IF(H2&gt;84,"A",IF(H2&gt;79,"A-",IF(H2&gt;74,"B+",IF(H2&gt;69,"B",IF(H2&gt;64,"B-",IF(H2&gt;59,"C+",IF(H2&gt;54,"C",IF(H2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,6 +678,14 @@
         <f t="shared" ref="G3:G41" si="0">C3+D3+E3+F3</f>
         <v>7.5</v>
       </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H41" si="1">(G3/20)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I41" si="2">IF(H3&gt;94,"A+",IF(H3&gt;84,"A",IF(H3&gt;79,"A-",IF(H3&gt;74,"B+",IF(H3&gt;69,"B",IF(H3&gt;64,"B-",IF(H3&gt;59,"C+",IF(H3&gt;54,"C",IF(H3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,6 +711,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,6 +744,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,6 +777,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,6 +810,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,6 +843,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,6 +876,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,6 +909,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,6 +942,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,6 +975,14 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,6 +1008,14 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,6 +1041,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,6 +1074,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,6 +1107,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,6 +1140,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,6 +1173,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,6 +1206,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,6 +1239,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,6 +1272,14 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,6 +1305,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,6 +1338,14 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,6 +1371,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,6 +1404,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,6 +1437,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,6 +1470,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,6 +1503,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,6 +1536,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="H29" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,6 +1569,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="H30" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,6 +1602,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H31" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,6 +1635,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H32" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,6 +1668,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,6 +1701,14 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
+      <c r="H34" s="10">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,6 +1734,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="H35" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,6 +1767,14 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
+      <c r="H36" s="10">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,6 +1800,14 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
+      <c r="H37" s="10">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,6 +1833,14 @@
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
+      <c r="H38" s="10">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,6 +1866,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="H39" s="10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,6 +1899,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="H40" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,6 +1931,14 @@
       <c r="G41" s="5">
         <f t="shared" si="0"/>
         <v>9.5</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -1607,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,10 +1964,11 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1643,8 +1990,14 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>171011197</v>
       </c>
@@ -1663,8 +2016,16 @@
         <f>C2+D2+E2+F2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="10">
+        <f>(G2/20)*100</f>
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IF(I2&gt;94,"A+",IF(I2&gt;84,"A",IF(I2&gt;79,"A-",IF(I2&gt;74,"B+",IF(I2&gt;69,"B",IF(I2&gt;64,"B-",IF(I2&gt;59,"C+",IF(I2&gt;54,"C",IF(I2&gt;49,"D","F")))))))))</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>171014001</v>
       </c>
@@ -1685,8 +2046,16 @@
         <f t="shared" ref="G3:G41" si="0">C3+D3+E3+F3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I41" si="1">(G3/20)*100</f>
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J41" si="2">IF(I3&gt;94,"A+",IF(I3&gt;84,"A",IF(I3&gt;79,"A-",IF(I3&gt;74,"B+",IF(I3&gt;69,"B",IF(I3&gt;64,"B-",IF(I3&gt;59,"C+",IF(I3&gt;54,"C",IF(I3&gt;49,"D","F")))))))))</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>181014084</v>
       </c>
@@ -1701,8 +2070,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>182014025</v>
       </c>
@@ -1721,8 +2098,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>183014016</v>
       </c>
@@ -1737,8 +2122,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>183014065</v>
       </c>
@@ -1753,8 +2146,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>191014021</v>
       </c>
@@ -1773,8 +2174,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>191014048</v>
       </c>
@@ -1795,8 +2204,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>191014054</v>
       </c>
@@ -1815,8 +2232,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>191014058</v>
       </c>
@@ -1835,8 +2260,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>191014081</v>
       </c>
@@ -1853,8 +2286,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>192014001</v>
       </c>
@@ -1873,8 +2314,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>192014004</v>
       </c>
@@ -1893,8 +2342,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>192014005</v>
       </c>
@@ -1915,8 +2372,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>192014006</v>
       </c>
@@ -1935,8 +2400,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>192014007</v>
       </c>
@@ -1951,8 +2424,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>192014008</v>
       </c>
@@ -1971,8 +2452,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>192014009</v>
       </c>
@@ -1991,8 +2480,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>192014010</v>
       </c>
@@ -2011,8 +2508,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>192014014</v>
       </c>
@@ -2033,8 +2538,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>192014016</v>
       </c>
@@ -2051,8 +2564,16 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>192014022</v>
       </c>
@@ -2069,8 +2590,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>192014024</v>
       </c>
@@ -2089,8 +2618,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>192014025</v>
       </c>
@@ -2109,8 +2646,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>192014026</v>
       </c>
@@ -2131,8 +2676,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>192014027</v>
       </c>
@@ -2151,8 +2704,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>192014032</v>
       </c>
@@ -2173,8 +2734,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>192014033</v>
       </c>
@@ -2193,8 +2762,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>192014034</v>
       </c>
@@ -2209,8 +2786,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>192014035</v>
       </c>
@@ -2233,8 +2818,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="10">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>192014036</v>
       </c>
@@ -2253,8 +2846,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>192014037</v>
       </c>
@@ -2275,8 +2876,16 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>192014038</v>
       </c>
@@ -2299,8 +2908,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>192014040</v>
       </c>
@@ -2319,8 +2936,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>192014041</v>
       </c>
@@ -2339,8 +2964,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>192014044</v>
       </c>
@@ -2355,8 +2988,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>192014045</v>
       </c>
@@ -2373,8 +3014,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>192014047</v>
       </c>
@@ -2393,8 +3042,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>193014075</v>
       </c>
@@ -2413,12 +3070,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="11">
         <v>-10</v>
       </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>181016002</v>
       </c>
@@ -2439,9 +3103,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="I41" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
